--- a/eDNA 12S metab/example_output/Summary_Species_level.xlsx
+++ b/eDNA 12S metab/example_output/Summary_Species_level.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,7 +394,7 @@
         <v>879487</v>
       </c>
       <c r="D2">
-        <v>36.7856</v>
+        <v>41.0567</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>495303</v>
+        <v>489766</v>
       </c>
       <c r="D3">
-        <v>20.7167</v>
+        <v>22.8635</v>
       </c>
     </row>
     <row r="4">
@@ -430,7 +430,7 @@
         <v>239508</v>
       </c>
       <c r="D4">
-        <v>10.0177</v>
+        <v>11.1808</v>
       </c>
     </row>
     <row r="5">
@@ -448,67 +448,67 @@
         <v>189687</v>
       </c>
       <c r="D5">
-        <v>7.9339</v>
+        <v>8.8551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>Fundulus majalis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C6">
-        <v>67501</v>
+        <v>49898</v>
       </c>
       <c r="D6">
-        <v>2.8233</v>
+        <v>2.3294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ammodytes dubius</t>
+          <t>Gallus gallus</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="C7">
-        <v>59639</v>
+        <v>36152</v>
       </c>
       <c r="D7">
-        <v>2.4945</v>
+        <v>1.6877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
+          <t>Larus sp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C8">
-        <v>57939</v>
+        <v>21557</v>
       </c>
       <c r="D8">
-        <v>2.4234</v>
+        <v>1.0063</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fundulus majalis</t>
+          <t>Pomatomus saltatrix</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -517,34 +517,34 @@
         </is>
       </c>
       <c r="C9">
-        <v>50453</v>
+        <v>20644</v>
       </c>
       <c r="D9">
-        <v>2.1103</v>
+        <v>0.9637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gallus gallus</t>
+          <t>Tautogolabrus adspersus</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C10">
-        <v>36152</v>
+        <v>18897</v>
       </c>
       <c r="D10">
-        <v>1.5121</v>
+        <v>0.8822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Apeltes quadracus</t>
+          <t>Stenotomus chrysops</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -553,52 +553,52 @@
         </is>
       </c>
       <c r="C11">
-        <v>26884</v>
+        <v>16452</v>
       </c>
       <c r="D11">
-        <v>1.1245</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Larus sp</t>
+          <t>Morone saxatilis</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C12">
-        <v>21557</v>
+        <v>15690</v>
       </c>
       <c r="D12">
-        <v>0.9016</v>
+        <v>0.7324000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pomatomus saltatrix</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="C13">
-        <v>20644</v>
+        <v>15577</v>
       </c>
       <c r="D13">
-        <v>0.8635</v>
+        <v>0.7272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tautogolabrus adspersus</t>
+          <t>Tautoga onitis</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -607,16 +607,16 @@
         </is>
       </c>
       <c r="C14">
-        <v>18897</v>
+        <v>13638</v>
       </c>
       <c r="D14">
-        <v>0.7904</v>
+        <v>0.6367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Anguilla rostrata</t>
+          <t>Ammodytes americanus</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="C15">
-        <v>16742</v>
+        <v>13246</v>
       </c>
       <c r="D15">
-        <v>0.7003</v>
+        <v>0.6183999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stenotomus chrysops</t>
+          <t>Trinectes maculatus</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -643,16 +643,16 @@
         </is>
       </c>
       <c r="C16">
-        <v>16452</v>
+        <v>11509</v>
       </c>
       <c r="D16">
-        <v>0.6881</v>
+        <v>0.5373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Morone saxatilis</t>
+          <t>Menticirrhus saxatilis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="C17">
-        <v>15690</v>
+        <v>11315</v>
       </c>
       <c r="D17">
-        <v>0.6563</v>
+        <v>0.5282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Tautoga onitis</t>
+          <t>Menidia beryllina</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -679,16 +679,16 @@
         </is>
       </c>
       <c r="C18">
-        <v>13638</v>
+        <v>11251</v>
       </c>
       <c r="D18">
-        <v>0.5704</v>
+        <v>0.5252</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ammodytes americanus</t>
+          <t>Centropristis striata</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -697,52 +697,52 @@
         </is>
       </c>
       <c r="C19">
-        <v>13246</v>
+        <v>11200</v>
       </c>
       <c r="D19">
-        <v>0.554</v>
+        <v>0.5228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lucania parva</t>
+          <t>Nannopterum auritum</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C20">
-        <v>12226</v>
+        <v>7502</v>
       </c>
       <c r="D20">
-        <v>0.5114</v>
+        <v>0.3502</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Menidia beryllina</t>
+          <t>Anatidae sp</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C21">
-        <v>12098</v>
+        <v>6343</v>
       </c>
       <c r="D21">
-        <v>0.506</v>
+        <v>0.2961</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Trinectes maculatus</t>
+          <t>Syngnathus fuscus</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="C22">
-        <v>11509</v>
+        <v>6204</v>
       </c>
       <c r="D22">
-        <v>0.4814</v>
+        <v>0.2896</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Menticirrhus saxatilis</t>
+          <t>Scophthalmus aquosus</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C23">
-        <v>11315</v>
+        <v>5719</v>
       </c>
       <c r="D23">
-        <v>0.4733</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Centropristis striata</t>
+          <t>Paralichthys dentatus</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -787,16 +787,16 @@
         </is>
       </c>
       <c r="C24">
-        <v>11200</v>
+        <v>5371</v>
       </c>
       <c r="D24">
-        <v>0.4685</v>
+        <v>0.2507</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gobiosoma bosc</t>
+          <t>Ammodytes dubius</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -805,52 +805,52 @@
         </is>
       </c>
       <c r="C25">
-        <v>10036</v>
+        <v>3203</v>
       </c>
       <c r="D25">
-        <v>0.4198</v>
+        <v>0.1495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nannopterum auritum</t>
+          <t>Cottidae sp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C26">
-        <v>7502</v>
+        <v>3028</v>
       </c>
       <c r="D26">
-        <v>0.3138</v>
+        <v>0.1414</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Anatidae sp</t>
+          <t>Apeltes quadracus</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C27">
-        <v>6343</v>
+        <v>2802</v>
       </c>
       <c r="D27">
-        <v>0.2653</v>
+        <v>0.1308</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Syngnathus fuscus</t>
+          <t>Pseudopleuronectes americanus or Myzopsetta ferruginea</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -859,34 +859,34 @@
         </is>
       </c>
       <c r="C28">
-        <v>6204</v>
+        <v>2781</v>
       </c>
       <c r="D28">
-        <v>0.2595</v>
+        <v>0.1298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Scophthalmus aquosus</t>
+          <t>Ardea cinerea</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C29">
-        <v>5719</v>
+        <v>2724</v>
       </c>
       <c r="D29">
-        <v>0.2392</v>
+        <v>0.1272</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paralichthys dentatus</t>
+          <t>Xiphias gladius</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="C30">
-        <v>5371</v>
+        <v>2332</v>
       </c>
       <c r="D30">
-        <v>0.2246</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Anas sp</t>
+          <t>Thunnus sp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C31">
-        <v>4194</v>
+        <v>2031</v>
       </c>
       <c r="D31">
-        <v>0.1754</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cottidae sp</t>
+          <t>Anchoa mitchilli</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -931,52 +931,52 @@
         </is>
       </c>
       <c r="C32">
-        <v>3028</v>
+        <v>1832</v>
       </c>
       <c r="D32">
-        <v>0.1266</v>
+        <v>0.08550000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Gobiosoma ginsburgi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C33">
-        <v>2867</v>
+        <v>1827</v>
       </c>
       <c r="D33">
-        <v>0.1199</v>
+        <v>0.0853</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ardea cinerea</t>
+          <t>Sus scrofa</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="C34">
-        <v>2724</v>
+        <v>1715</v>
       </c>
       <c r="D34">
-        <v>0.1139</v>
+        <v>0.0801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Merluccius bilinearis</t>
+          <t>Sphoeroides maculatus</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C35">
-        <v>2615</v>
+        <v>1618</v>
       </c>
       <c r="D35">
-        <v>0.1094</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Xiphias gladius</t>
+          <t>Mugil sp</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1003,34 +1003,34 @@
         </is>
       </c>
       <c r="C36">
-        <v>2332</v>
+        <v>1607</v>
       </c>
       <c r="D36">
-        <v>0.0975</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Larus delawarensis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C37">
-        <v>2055</v>
+        <v>1202</v>
       </c>
       <c r="D37">
-        <v>0.08599999999999999</v>
+        <v>0.0561</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Thunnus sp</t>
+          <t>Prionotus evolans</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="C38">
-        <v>2031</v>
+        <v>1128</v>
       </c>
       <c r="D38">
-        <v>0.0849</v>
+        <v>0.0527</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Anchoa mitchilli</t>
+          <t>Pholis gunnellus</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C39">
-        <v>1832</v>
+        <v>1059</v>
       </c>
       <c r="D39">
-        <v>0.0766</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gobiosoma ginsburgi</t>
+          <t>Morone americana</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1075,52 +1075,52 @@
         </is>
       </c>
       <c r="C40">
-        <v>1827</v>
+        <v>1053</v>
       </c>
       <c r="D40">
-        <v>0.0764</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sus scrofa</t>
+          <t>Pogonias cromis or Leiostomus xanthurus</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C41">
-        <v>1715</v>
+        <v>1002</v>
       </c>
       <c r="D41">
-        <v>0.0717</v>
+        <v>0.0468</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sphoeroides maculatus</t>
+          <t>Cystophora cristata or Halichoerus grypus or Phoca vitulina</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Marine Mammal</t>
         </is>
       </c>
       <c r="C42">
-        <v>1618</v>
+        <v>892</v>
       </c>
       <c r="D42">
-        <v>0.0677</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mugil sp</t>
+          <t>Lepomis macrochirus</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1129,16 +1129,16 @@
         </is>
       </c>
       <c r="C43">
-        <v>1607</v>
+        <v>801</v>
       </c>
       <c r="D43">
-        <v>0.0672</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aythya sp</t>
+          <t>mergus sp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1147,52 +1147,52 @@
         </is>
       </c>
       <c r="C44">
-        <v>1408</v>
+        <v>714</v>
       </c>
       <c r="D44">
-        <v>0.0589</v>
+        <v>0.0333</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Prionotus evolans</t>
+          <t>Aythya sp</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C45">
-        <v>1128</v>
+        <v>704</v>
       </c>
       <c r="D45">
-        <v>0.0472</v>
+        <v>0.0329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gavia immer</t>
+          <t>Peprilus triacanthus</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C46">
-        <v>1126</v>
+        <v>655</v>
       </c>
       <c r="D46">
-        <v>0.0471</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Pholis gunnellus</t>
+          <t>Cynoscion regalis</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1201,16 +1201,16 @@
         </is>
       </c>
       <c r="C47">
-        <v>1059</v>
+        <v>616</v>
       </c>
       <c r="D47">
-        <v>0.0443</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Morone americana</t>
+          <t>Salmo salar</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1219,34 +1219,34 @@
         </is>
       </c>
       <c r="C48">
-        <v>1053</v>
+        <v>575</v>
       </c>
       <c r="D48">
-        <v>0.044</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Canis lupus</t>
+          <t>Lophodytes cucullatus</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C49">
-        <v>1024</v>
+        <v>470</v>
       </c>
       <c r="D49">
-        <v>0.0428</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Pogonias cromis or Leiostomus xanthurus</t>
+          <t>Prionotus carolinus</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1255,88 +1255,88 @@
         </is>
       </c>
       <c r="C50">
-        <v>1002</v>
+        <v>437</v>
       </c>
       <c r="D50">
-        <v>0.0419</v>
+        <v>0.0204</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cystophora cristata or Halichoerus grypus or Phoca vitulina</t>
+          <t>Urophycis sp</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Marine Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C51">
-        <v>892</v>
+        <v>389</v>
       </c>
       <c r="D51">
-        <v>0.0373</v>
+        <v>0.0182</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cyprinodon variegatus</t>
+          <t>Sterna hirundo</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C52">
-        <v>862</v>
+        <v>387</v>
       </c>
       <c r="D52">
-        <v>0.0361</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Lepomis macrochirus</t>
+          <t>Procyon lotor</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C53">
-        <v>801</v>
+        <v>374</v>
       </c>
       <c r="D53">
-        <v>0.0335</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mergus sp</t>
+          <t>Peristedion miniatum or Ulvaria subbifurcata</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C54">
-        <v>714</v>
+        <v>352</v>
       </c>
       <c r="D54">
-        <v>0.0299</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Peprilus triacanthus</t>
+          <t>Myrophis punctatus</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1345,52 +1345,52 @@
         </is>
       </c>
       <c r="C55">
-        <v>655</v>
+        <v>349</v>
       </c>
       <c r="D55">
-        <v>0.0274</v>
+        <v>0.0163</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Merginae sp</t>
+          <t>Lucania parva</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C56">
-        <v>632</v>
+        <v>325</v>
       </c>
       <c r="D56">
-        <v>0.0264</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cynoscion regalis</t>
+          <t>Clangula hyemalis or other Anatidae sp</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C57">
-        <v>616</v>
+        <v>320</v>
       </c>
       <c r="D57">
-        <v>0.0258</v>
+        <v>0.0149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Salmo salar</t>
+          <t>Osmerus mordax</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1399,34 +1399,34 @@
         </is>
       </c>
       <c r="C58">
-        <v>575</v>
+        <v>267</v>
       </c>
       <c r="D58">
-        <v>0.0241</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mareca sp</t>
+          <t>Anguilla rostrata</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C59">
-        <v>549</v>
+        <v>255</v>
       </c>
       <c r="D59">
-        <v>0.023</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lophodytes cucullatus</t>
+          <t>Larus atricilla</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1435,34 +1435,34 @@
         </is>
       </c>
       <c r="C60">
-        <v>470</v>
+        <v>235</v>
       </c>
       <c r="D60">
-        <v>0.0197</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bos taurus</t>
+          <t>Clupea harengus</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C61">
-        <v>437</v>
+        <v>202</v>
       </c>
       <c r="D61">
-        <v>0.0183</v>
+        <v>0.0094</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Prionotus carolinus</t>
+          <t>Engraulis eurystole</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1471,16 +1471,16 @@
         </is>
       </c>
       <c r="C62">
-        <v>437</v>
+        <v>185</v>
       </c>
       <c r="D62">
-        <v>0.0183</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Urophycis sp</t>
+          <t>Fundulus diaphanus</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1489,70 +1489,70 @@
         </is>
       </c>
       <c r="C63">
-        <v>389</v>
+        <v>174</v>
       </c>
       <c r="D63">
-        <v>0.0163</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sterna hirundo</t>
+          <t>Felis catus</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="C64">
-        <v>387</v>
+        <v>171</v>
       </c>
       <c r="D64">
-        <v>0.0162</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Meleagris gallopavo</t>
+          <t>Charadrius semipalmatus</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C65">
-        <v>378</v>
+        <v>145</v>
       </c>
       <c r="D65">
-        <v>0.0158</v>
+        <v>0.0068</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Procyon lotor</t>
+          <t>Etropus microstomus</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C66">
-        <v>374</v>
+        <v>133</v>
       </c>
       <c r="D66">
-        <v>0.0156</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Peristedion miniatum or Ulvaria subbifurcata</t>
+          <t>Acipenser sp</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1561,52 +1561,52 @@
         </is>
       </c>
       <c r="C67">
-        <v>352</v>
+        <v>130</v>
       </c>
       <c r="D67">
-        <v>0.0147</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Myrophis punctatus</t>
+          <t>Canis lupus</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Livestock</t>
         </is>
       </c>
       <c r="C68">
-        <v>349</v>
+        <v>126</v>
       </c>
       <c r="D68">
-        <v>0.0146</v>
+        <v>0.0059</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Clangula hyemalis or other Anatidae sp</t>
+          <t>Enchelyopus cimbrius</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C69">
-        <v>320</v>
+        <v>118</v>
       </c>
       <c r="D69">
-        <v>0.0134</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Osmerus mordax</t>
+          <t>Scomber scombrus</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1615,52 +1615,52 @@
         </is>
       </c>
       <c r="C70">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="D70">
-        <v>0.0112</v>
+        <v>0.0055</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Larus atricilla</t>
+          <t>Sylvilagus floridanus</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C71">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="D71">
-        <v>0.0098</v>
+        <v>0.0052</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Clupea harengus</t>
+          <t>Larus delawarensis</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C72">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="D72">
-        <v>0.008399999999999999</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Engraulis eurystole</t>
+          <t>Gadus morhua or Melanogrammus aeglefinus</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1669,16 +1669,16 @@
         </is>
       </c>
       <c r="C73">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="D73">
-        <v>0.0077</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fundulus diaphanus</t>
+          <t>Gasterosteus aculeatus</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1687,52 +1687,52 @@
         </is>
       </c>
       <c r="C74">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D74">
-        <v>0.0073</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Felis catus</t>
+          <t>Mugil cephalus</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Livestock</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C75">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="D75">
-        <v>0.0072</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Charadrius semipalmatus</t>
+          <t>Rattus norvegicus</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C76">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="D76">
-        <v>0.0061</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Etropus microstomus</t>
+          <t>Merluccius bilinearis</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1741,34 +1741,34 @@
         </is>
       </c>
       <c r="C77">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="D77">
-        <v>0.0056</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Acipenser sp</t>
+          <t>Microtus pennsylvanicus</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C78">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="D78">
-        <v>0.0054</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Enchelyopus cimbrius</t>
+          <t>Conger oceanicus</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1777,16 +1777,16 @@
         </is>
       </c>
       <c r="C79">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="D79">
-        <v>0.0049</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Scomber scombrus</t>
+          <t>Pomoxis nigromaculatus</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1795,52 +1795,52 @@
         </is>
       </c>
       <c r="C80">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="D80">
-        <v>0.0049</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sylvilagus floridanus</t>
+          <t>Anas sp</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C81">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D81">
-        <v>0.0047</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gadus morhua or Melanogrammus aeglefinus</t>
+          <t>Gavia immer</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C82">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D82">
-        <v>0.004</v>
+        <v>0.0029</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gasterosteus aculeatus</t>
+          <t>Lepomis gibbosus</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1849,16 +1849,16 @@
         </is>
       </c>
       <c r="C83">
-        <v>94</v>
+        <v>60</v>
       </c>
       <c r="D83">
-        <v>0.0039</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mugil cephalus</t>
+          <t>Micropterus salmoides</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1867,52 +1867,52 @@
         </is>
       </c>
       <c r="C84">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D84">
-        <v>0.0036</v>
+        <v>0.0028</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Rattus norvegicus</t>
+          <t>Coryphaena hippurus</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C85">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D85">
-        <v>0.0033</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Microtus pennsylvanicus</t>
+          <t>Sebastes fasciatus</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C86">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D86">
-        <v>0.0028</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Conger oceanicus</t>
+          <t>Gobiosoma bosc</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="C87">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D87">
-        <v>0.0028</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Pomoxis nigromaculatus</t>
+          <t>Pungitius pungitius</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1939,43 +1939,43 @@
         </is>
       </c>
       <c r="C88">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D88">
-        <v>0.0028</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Lepomis gibbosus</t>
+          <t>Melospiza melodia or Spizella passerina</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C89">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D89">
-        <v>0.0025</v>
+        <v>0.0026</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Micropterus salmoides</t>
+          <t>Lontra canadensis</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C90">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D90">
         <v>0.0025</v>
@@ -1984,25 +1984,25 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Coryphaena hippurus</t>
+          <t>Sciurus carolinensis</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C91">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D91">
-        <v>0.0024</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sebastes fasciatus</t>
+          <t>Esox americanus or niger</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2011,7 +2011,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D92">
         <v>0.0024</v>
@@ -2020,115 +2020,115 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Pungitius pungitius</t>
+          <t>Ondatra zibethicus</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C93">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D93">
-        <v>0.0023</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Melospiza melodia or Spizella passerina</t>
+          <t>Decapterus punctatus</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bird</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C94">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D94">
-        <v>0.0023</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Lontra canadensis</t>
+          <t>Hippoglossina oblonga</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C95">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="D95">
-        <v>0.0022</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sciurus carolinensis</t>
+          <t>Trachurus lathami</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C96">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D96">
-        <v>0.0022</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Esox americanus or niger</t>
+          <t>Peromyscus leucopus</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Mammal</t>
         </is>
       </c>
       <c r="C97">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D97">
-        <v>0.0021</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Ondatra zibethicus</t>
+          <t>Ctenogobius boleosoma</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C98">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D98">
-        <v>0.002</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Decapterus punctatus</t>
+          <t>Mugil rubrioculus</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2137,34 +2137,34 @@
         </is>
       </c>
       <c r="C99">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D99">
-        <v>0.0019</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hippoglossina oblonga</t>
+          <t>Sternotherus carinatus</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Reptile</t>
         </is>
       </c>
       <c r="C100">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D100">
-        <v>0.0016</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Trachurus lathami</t>
+          <t>Strongylura marina</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2173,34 +2173,34 @@
         </is>
       </c>
       <c r="C101">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D101">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Peromyscus leucopus</t>
+          <t>Balaenoptera physalus</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Mammal</t>
+          <t>Marine Mammal</t>
         </is>
       </c>
       <c r="C102">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D102">
-        <v>0.0013</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ctenogobius boleosoma</t>
+          <t>Citharichthys arctifrons</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2209,52 +2209,52 @@
         </is>
       </c>
       <c r="C103">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D103">
-        <v>0.0013</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mugil rubrioculus</t>
+          <t>Phocoena phocoena</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>Marine Mammal</t>
         </is>
       </c>
       <c r="C104">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D104">
-        <v>0.0013</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Sternotherus carinatus</t>
+          <t>Passer domesticus</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Reptile</t>
+          <t>Bird</t>
         </is>
       </c>
       <c r="C105">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D105">
-        <v>0.0012</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Strongylura marina</t>
+          <t>Sphyraena borealis</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2263,34 +2263,34 @@
         </is>
       </c>
       <c r="C106">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D106">
-        <v>0.0009</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Balaenoptera physalus</t>
+          <t>Caranx hippos</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Marine Mammal</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="C107">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D107">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Citharichthys arctifrons</t>
+          <t>Scomberesox saurus</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2299,100 +2299,10 @@
         </is>
       </c>
       <c r="C108">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D108">
-        <v>0.0008</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Phocoena phocoena</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Marine Mammal</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>19</v>
-      </c>
-      <c r="D109">
-        <v>0.0008</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Passer domesticus</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Bird</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>16</v>
-      </c>
-      <c r="D110">
-        <v>0.0007</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Sphyraena borealis</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Teleost Fish</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>15</v>
-      </c>
-      <c r="D111">
         <v>0.0005999999999999999</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Caranx hippos</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Teleost Fish</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>14</v>
-      </c>
-      <c r="D112">
-        <v>0.0005999999999999999</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Scomberesox saurus</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Teleost Fish</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>12</v>
-      </c>
-      <c r="D113">
-        <v>0.0005</v>
       </c>
     </row>
   </sheetData>
